--- a/src/Componentes/Manuales/Plantilla.xlsx
+++ b/src/Componentes/Manuales/Plantilla.xlsx
@@ -30,12 +30,6 @@
     <t>Proveedor</t>
   </si>
   <si>
-    <t>Descipcion</t>
-  </si>
-  <si>
-    <t>Entega</t>
-  </si>
-  <si>
     <t>Moneda</t>
   </si>
   <si>
@@ -48,9 +42,6 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>Duracion</t>
-  </si>
-  <si>
     <t>Descripcion_Partida</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>Precio_Lista</t>
+  </si>
+  <si>
+    <t>Entrega_Semanas</t>
+  </si>
+  <si>
+    <t>Duracion_Meses</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,10 +407,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -422,31 +422,31 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
